--- a/Assets/Audio/AudioSheet.xlsx
+++ b/Assets/Audio/AudioSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12580" windowHeight="10480"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Nmb</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>audio Name</t>
@@ -101,14 +104,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +257,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -564,153 +566,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1030,19 +1033,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="27.5416666666667" customWidth="1"/>
-    <col min="3" max="3" width="25.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="27.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,160 +1055,199 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Audio/AudioSheet.xlsx
+++ b/Assets/Audio/AudioSheet.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Nmb</t>
   </si>
@@ -34,7 +35,7 @@
     <t>游玩等待页面</t>
   </si>
   <si>
-    <t>？</t>
+    <t>白天死亡倒计时BGM</t>
   </si>
   <si>
     <t>日历死亡倒计时</t>
@@ -46,7 +47,7 @@
     <t>总音效，always loop</t>
   </si>
   <si>
-    <t>工作BGM1.wav</t>
+    <t>工作BGM0.wav</t>
   </si>
   <si>
     <t>夜晚BGM1.wav</t>
@@ -79,7 +80,7 @@
     <t>按摩状态BGM1.wav</t>
   </si>
   <si>
-    <t>睡觉BGM1.wav</t>
+    <t>睡觉BGM0.wav</t>
   </si>
   <si>
     <t>SAN_sfx.wav</t>
@@ -92,6 +93,48 @@
   </si>
   <si>
     <t>HP值降低到阈值播放</t>
+  </si>
+  <si>
+    <t>Work SAN</t>
+  </si>
+  <si>
+    <t>Work HP</t>
+  </si>
+  <si>
+    <t>smileSAN</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>hSAN</t>
+  </si>
+  <si>
+    <t>dragSAN</t>
+  </si>
+  <si>
+    <t>drinkSAN</t>
+  </si>
+  <si>
+    <t>Rest SAN</t>
+  </si>
+  <si>
+    <t>Rest HP</t>
+  </si>
+  <si>
+    <t>最大值 -20</t>
+  </si>
+  <si>
+    <t>回满</t>
+  </si>
+  <si>
+    <t>最大值 - 20</t>
+  </si>
+  <si>
+    <t>最大值-20</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -257,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +309,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,12 +530,74 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,121 +734,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1035,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1081,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1180,7 +1334,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
@@ -1191,7 +1348,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1213,7 +1373,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1232,7 +1395,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
@@ -1243,7 +1409,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
@@ -1254,4 +1423,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="11.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="10.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="3">
+        <v>80</v>
+      </c>
+      <c r="O3" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="3">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="3">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="3">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="14.75" spans="1:15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9">
+        <v>-25</v>
+      </c>
+      <c r="C9">
+        <v>-25</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>